--- a/medicine/Enfance/Eva_Lindström/Eva_Lindström.xlsx
+++ b/medicine/Enfance/Eva_Lindström/Eva_Lindström.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Eva_Lindstr%C3%B6m</t>
+          <t>Eva_Lindström</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Eva Lindström, née à Västerås en 1952[1], est une auteure et illustratrice suédoise de littérature d'enfance et de jeunesse. Elle est lauréate en 2022 du prestigieux prix international, le Prix commémoratif Astrid-Lindgren.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Eva Lindström, née à Västerås en 1952, est une auteure et illustratrice suédoise de littérature d'enfance et de jeunesse. Elle est lauréate en 2022 du prestigieux prix international, le Prix commémoratif Astrid-Lindgren.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Eva_Lindstr%C3%B6m</t>
+          <t>Eva_Lindström</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">À l'âge de 17 ans, elle rejoint Konstfack, l'université d'arts de Stockholm où elle étudie la peinture de 1969 à 1974[2]. Après quelques années d'activité en tant qu'illustratrice, elle publie son premier ouvrage personnel en 1988 : Kattmössan (The cat's hat)[3].
-Son œuvre est reconnue internationalement. Elle est finaliste du Prix Hans-Christian-Andersen en 2014 dans la catégorie Illustration[4]. Elle reçoit en 2022 le Prix commémoratif Astrid-Lindgren[5]. Ses ouvrages ont été publiés en français par Cambourakis, les Éditions Autrement ou encore le cosmographe[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l'âge de 17 ans, elle rejoint Konstfack, l'université d'arts de Stockholm où elle étudie la peinture de 1969 à 1974. Après quelques années d'activité en tant qu'illustratrice, elle publie son premier ouvrage personnel en 1988 : Kattmössan (The cat's hat).
+Son œuvre est reconnue internationalement. Elle est finaliste du Prix Hans-Christian-Andersen en 2014 dans la catégorie Illustration. Elle reçoit en 2022 le Prix commémoratif Astrid-Lindgren. Ses ouvrages ont été publiés en français par Cambourakis, les Éditions Autrement ou encore le cosmographe.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Eva_Lindstr%C3%B6m</t>
+          <t>Eva_Lindström</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Publications traduites en français</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Trucs et ficelles d'un petit troll, texte de Katarina Mazetti trad. du suédois par Marie-Ange Guillaume et Cécilia Monteux, Hachette jeunesse, 2002
 Dans les bois , Éditions Autrement, 2012
